--- a/data/pca/factorExposure/factorExposure_2010-07-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-06.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01663448136786643</v>
+        <v>-0.01669720072439513</v>
       </c>
       <c r="C2">
-        <v>-0.0006259758247495751</v>
+        <v>0.0009232294284396601</v>
       </c>
       <c r="D2">
-        <v>-0.01235720493505899</v>
+        <v>-0.006742852239133883</v>
       </c>
       <c r="E2">
-        <v>0.0154193375517734</v>
+        <v>0.002108071611612096</v>
       </c>
       <c r="F2">
-        <v>0.03238362991984394</v>
+        <v>-0.01222089242923297</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1199350302480282</v>
+        <v>-0.09497548459763729</v>
       </c>
       <c r="C4">
-        <v>0.09361706644763723</v>
+        <v>0.01789820600847232</v>
       </c>
       <c r="D4">
-        <v>-0.006435810192395208</v>
+        <v>-0.07848729994688072</v>
       </c>
       <c r="E4">
-        <v>-0.1367603333615443</v>
+        <v>-0.02773297871403522</v>
       </c>
       <c r="F4">
-        <v>0.1041232474662284</v>
+        <v>0.0399418342485794</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.124138809847154</v>
+        <v>-0.1517200187699934</v>
       </c>
       <c r="C6">
-        <v>0.06122860896339195</v>
+        <v>0.02448067957956012</v>
       </c>
       <c r="D6">
-        <v>0.00214529933721813</v>
+        <v>0.02065587173291133</v>
       </c>
       <c r="E6">
-        <v>-0.06223744686702393</v>
+        <v>-0.01231818334486862</v>
       </c>
       <c r="F6">
-        <v>0.05090161290252264</v>
+        <v>0.04022835637509412</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07154833474389759</v>
+        <v>-0.06294090234869779</v>
       </c>
       <c r="C7">
-        <v>0.08695887931456167</v>
+        <v>0.000457882431814994</v>
       </c>
       <c r="D7">
-        <v>-0.007092279264209209</v>
+        <v>-0.05249255050517307</v>
       </c>
       <c r="E7">
-        <v>-0.01714224843131634</v>
+        <v>-0.01334193799936539</v>
       </c>
       <c r="F7">
-        <v>-0.003208045383445302</v>
+        <v>0.05673104163387383</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04092140194292013</v>
+        <v>-0.05979215170952773</v>
       </c>
       <c r="C8">
-        <v>0.006891314328951621</v>
+        <v>-0.01282230847576584</v>
       </c>
       <c r="D8">
-        <v>-0.01343524365917703</v>
+        <v>-0.02702036194475075</v>
       </c>
       <c r="E8">
-        <v>-0.06695079247299174</v>
+        <v>-0.01030898355195494</v>
       </c>
       <c r="F8">
-        <v>0.09666386145166547</v>
+        <v>-0.02077893964474786</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08899664414096728</v>
+        <v>-0.07271515132580242</v>
       </c>
       <c r="C9">
-        <v>0.06354904255136223</v>
+        <v>0.01452538305336767</v>
       </c>
       <c r="D9">
-        <v>0.009381754662465956</v>
+        <v>-0.07665460087811184</v>
       </c>
       <c r="E9">
-        <v>-0.105432403450668</v>
+        <v>-0.02050727325501479</v>
       </c>
       <c r="F9">
-        <v>0.07858822808802149</v>
+        <v>0.06126118244106842</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1308559399703567</v>
+        <v>-0.09146410427242173</v>
       </c>
       <c r="C10">
-        <v>-0.1820436456083722</v>
+        <v>0.01361138221059785</v>
       </c>
       <c r="D10">
-        <v>-0.01241440940950404</v>
+        <v>0.1726765225539553</v>
       </c>
       <c r="E10">
-        <v>0.0340765498516559</v>
+        <v>0.03387774413863857</v>
       </c>
       <c r="F10">
-        <v>-0.05141967576342883</v>
+        <v>-0.05071647480664026</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06721610347806059</v>
+        <v>-0.08860707810270549</v>
       </c>
       <c r="C11">
-        <v>0.05856398774917962</v>
+        <v>0.01361019057239103</v>
       </c>
       <c r="D11">
-        <v>0.04334584625775621</v>
+        <v>-0.1075471379165245</v>
       </c>
       <c r="E11">
-        <v>-0.07975678840443952</v>
+        <v>-0.04042064621085101</v>
       </c>
       <c r="F11">
-        <v>0.05466553577056194</v>
+        <v>0.02713431098409325</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07744693614290082</v>
+        <v>-0.0937918364309217</v>
       </c>
       <c r="C12">
-        <v>0.06926851646806219</v>
+        <v>0.01113804397547704</v>
       </c>
       <c r="D12">
-        <v>0.05569631273877632</v>
+        <v>-0.1137656101009348</v>
       </c>
       <c r="E12">
-        <v>-0.1211429991917851</v>
+        <v>-0.03879170941236191</v>
       </c>
       <c r="F12">
-        <v>0.03329043603217928</v>
+        <v>0.02981581336101005</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04113954776399863</v>
+        <v>-0.04382424678077635</v>
       </c>
       <c r="C13">
-        <v>0.03969279968091104</v>
+        <v>0.004323680473990886</v>
       </c>
       <c r="D13">
-        <v>-0.02602877840238748</v>
+        <v>-0.03790833131757888</v>
       </c>
       <c r="E13">
-        <v>-0.04192657087139161</v>
+        <v>0.01422797625419981</v>
       </c>
       <c r="F13">
-        <v>0.03326851515972688</v>
+        <v>0.02074116868382073</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04659923903761826</v>
+        <v>-0.02207501715531918</v>
       </c>
       <c r="C14">
-        <v>0.03069099085430224</v>
+        <v>0.01498256875107315</v>
       </c>
       <c r="D14">
-        <v>0.0003161812987195848</v>
+        <v>-0.02889305951889704</v>
       </c>
       <c r="E14">
-        <v>-0.03728369667924402</v>
+        <v>-0.01502273479985573</v>
       </c>
       <c r="F14">
-        <v>0.02839042021126378</v>
+        <v>0.02674032525594851</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02610548870549702</v>
+        <v>-0.03218761519648728</v>
       </c>
       <c r="C15">
-        <v>0.01626334629601542</v>
+        <v>0.006008561560369284</v>
       </c>
       <c r="D15">
-        <v>-0.07466067450016624</v>
+        <v>-0.03906660369281286</v>
       </c>
       <c r="E15">
-        <v>0.002189903944902388</v>
+        <v>-0.006942459723195742</v>
       </c>
       <c r="F15">
-        <v>0.0356904189485609</v>
+        <v>0.03503005820993886</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08040969014449993</v>
+        <v>-0.07576007308803223</v>
       </c>
       <c r="C16">
-        <v>0.0756635753860031</v>
+        <v>0.005157039915192725</v>
       </c>
       <c r="D16">
-        <v>0.04099908972862657</v>
+        <v>-0.1117157950422608</v>
       </c>
       <c r="E16">
-        <v>-0.09640817323922152</v>
+        <v>-0.05640539721426879</v>
       </c>
       <c r="F16">
-        <v>0.031340588003726</v>
+        <v>0.0351174835972649</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01665523144669718</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.004257332229002128</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.0224622010195786</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01090175001997351</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02841957553579297</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04548271160717345</v>
+        <v>-0.06146315277097481</v>
       </c>
       <c r="C20">
-        <v>0.02516302531597807</v>
+        <v>0.003046127526712492</v>
       </c>
       <c r="D20">
-        <v>-0.03394445619468479</v>
+        <v>-0.06691279125545163</v>
       </c>
       <c r="E20">
-        <v>-0.07492482277582858</v>
+        <v>-0.04953953811577121</v>
       </c>
       <c r="F20">
-        <v>0.01966847254058214</v>
+        <v>0.03183731259880461</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03741243749083802</v>
+        <v>-0.03728790022986089</v>
       </c>
       <c r="C21">
-        <v>0.02502910190055382</v>
+        <v>0.008085836600501408</v>
       </c>
       <c r="D21">
-        <v>0.01751241563271332</v>
+        <v>-0.03481295690740302</v>
       </c>
       <c r="E21">
-        <v>-0.05590549916292139</v>
+        <v>0.01295796162698584</v>
       </c>
       <c r="F21">
-        <v>0.02581945589672837</v>
+        <v>-0.01711718006293008</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05519123256367429</v>
+        <v>-0.04293059967838998</v>
       </c>
       <c r="C22">
-        <v>0.02480348902694924</v>
+        <v>0.001134361725662073</v>
       </c>
       <c r="D22">
-        <v>-0.6462982449336817</v>
+        <v>0.001299109137975408</v>
       </c>
       <c r="E22">
-        <v>-0.04646445515688681</v>
+        <v>-0.03434049755653855</v>
       </c>
       <c r="F22">
-        <v>-0.1253792126649343</v>
+        <v>-0.02553264349777394</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05575494271502979</v>
+        <v>-0.04296796538864921</v>
       </c>
       <c r="C23">
-        <v>0.02600410631872421</v>
+        <v>0.001157094519288303</v>
       </c>
       <c r="D23">
-        <v>-0.648466185830997</v>
+        <v>0.001125856218949848</v>
       </c>
       <c r="E23">
-        <v>-0.05046978735677479</v>
+        <v>-0.03470262209036219</v>
       </c>
       <c r="F23">
-        <v>-0.1228460491321268</v>
+        <v>-0.02495745247593724</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07879731252101843</v>
+        <v>-0.08187978058688158</v>
       </c>
       <c r="C24">
-        <v>0.07282331130011473</v>
+        <v>0.005221197249859476</v>
       </c>
       <c r="D24">
-        <v>0.03509116689770128</v>
+        <v>-0.1118989111774676</v>
       </c>
       <c r="E24">
-        <v>-0.09463664229598795</v>
+        <v>-0.04437265075558938</v>
       </c>
       <c r="F24">
-        <v>0.03663978999667806</v>
+        <v>0.02753722123400766</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07724491859706985</v>
+        <v>-0.08649847043215352</v>
       </c>
       <c r="C25">
-        <v>0.0538536353439628</v>
+        <v>0.007591261942038156</v>
       </c>
       <c r="D25">
-        <v>0.05606035538747554</v>
+        <v>-0.09716528187867053</v>
       </c>
       <c r="E25">
-        <v>-0.1003574159318995</v>
+        <v>-0.02581024629928329</v>
       </c>
       <c r="F25">
-        <v>0.0409868618213183</v>
+        <v>0.03682839592985891</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04175516029138591</v>
+        <v>-0.05670365081819891</v>
       </c>
       <c r="C26">
-        <v>0.01564520066506859</v>
+        <v>0.01521004352877771</v>
       </c>
       <c r="D26">
-        <v>-0.01394652363268114</v>
+        <v>-0.02731534312386069</v>
       </c>
       <c r="E26">
-        <v>-0.09288795879634117</v>
+        <v>-0.02376776174775246</v>
       </c>
       <c r="F26">
-        <v>-0.01955119012891571</v>
+        <v>0.001359152363665096</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1544964129593937</v>
+        <v>-0.1377650759043015</v>
       </c>
       <c r="C28">
-        <v>-0.2751768268843147</v>
+        <v>0.01099459950013008</v>
       </c>
       <c r="D28">
-        <v>0.007495838074592863</v>
+        <v>0.2757670359075688</v>
       </c>
       <c r="E28">
-        <v>-0.01938351883888527</v>
+        <v>0.06581899937151554</v>
       </c>
       <c r="F28">
-        <v>0.004188685044071118</v>
+        <v>0.0456692584179666</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04095601232067166</v>
+        <v>-0.02718626670730542</v>
       </c>
       <c r="C29">
-        <v>0.02700250628445007</v>
+        <v>0.009164549832302261</v>
       </c>
       <c r="D29">
-        <v>0.004631584891719383</v>
+        <v>-0.02737890126368809</v>
       </c>
       <c r="E29">
-        <v>-0.03940256210914814</v>
+        <v>-0.008012270580911656</v>
       </c>
       <c r="F29">
-        <v>0.02381451892150492</v>
+        <v>-0.006786124132818015</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.0828808294927411</v>
+        <v>-0.06541848734861551</v>
       </c>
       <c r="C30">
-        <v>0.05504532756802225</v>
+        <v>0.007900478826664788</v>
       </c>
       <c r="D30">
-        <v>0.01329913601335946</v>
+        <v>-0.07444326564367876</v>
       </c>
       <c r="E30">
-        <v>-0.3020950149755063</v>
+        <v>-0.01965461049069596</v>
       </c>
       <c r="F30">
-        <v>0.01366138845425945</v>
+        <v>0.1240494045101707</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02853208768408844</v>
+        <v>-0.04831035698419334</v>
       </c>
       <c r="C31">
-        <v>0.0570418447514295</v>
+        <v>0.01519304562223293</v>
       </c>
       <c r="D31">
-        <v>-0.005856326976681502</v>
+        <v>-0.03002134224026026</v>
       </c>
       <c r="E31">
-        <v>-0.02844400789014385</v>
+        <v>-0.02630414769801073</v>
       </c>
       <c r="F31">
-        <v>0.02718836208128306</v>
+        <v>-0.002255509158143959</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05706620754714227</v>
+        <v>-0.04842739112570894</v>
       </c>
       <c r="C32">
-        <v>0.002633982620123197</v>
+        <v>0.001066455643501741</v>
       </c>
       <c r="D32">
-        <v>0.0370260790759991</v>
+        <v>-0.02341345546171399</v>
       </c>
       <c r="E32">
-        <v>0.008214468801259495</v>
+        <v>-0.02378077064055398</v>
       </c>
       <c r="F32">
-        <v>0.1046046303496111</v>
+        <v>0.005675442813918217</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09562303098125417</v>
+        <v>-0.09197560288730366</v>
       </c>
       <c r="C33">
-        <v>0.06851863594493759</v>
+        <v>0.01073746073925354</v>
       </c>
       <c r="D33">
-        <v>0.02023037183944575</v>
+        <v>-0.08800824208084974</v>
       </c>
       <c r="E33">
-        <v>-0.06945165304032144</v>
+        <v>-0.04235404576134374</v>
       </c>
       <c r="F33">
-        <v>0.01646314572913343</v>
+        <v>0.04335783048249155</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06777453180219759</v>
+        <v>-0.06904455990109751</v>
       </c>
       <c r="C34">
-        <v>0.05297786908607014</v>
+        <v>0.01308845642556344</v>
       </c>
       <c r="D34">
-        <v>0.04845367414040532</v>
+        <v>-0.09057070420928599</v>
       </c>
       <c r="E34">
-        <v>-0.0815152821825412</v>
+        <v>-0.02705643329187099</v>
       </c>
       <c r="F34">
-        <v>0.03908436023692016</v>
+        <v>0.05242966896134842</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01793629567497155</v>
+        <v>-0.0240833078529944</v>
       </c>
       <c r="C35">
-        <v>0.01614035264284533</v>
+        <v>0.002497928092439494</v>
       </c>
       <c r="D35">
-        <v>-0.00539790749093176</v>
+        <v>-0.008628041531247735</v>
       </c>
       <c r="E35">
-        <v>-0.02176752598697886</v>
+        <v>-0.01179926037291424</v>
       </c>
       <c r="F35">
-        <v>0.002552130398132306</v>
+        <v>0.01265003489538992</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02853808674990417</v>
+        <v>-0.02624422825660048</v>
       </c>
       <c r="C36">
-        <v>0.01993361599838721</v>
+        <v>0.00704919050743552</v>
       </c>
       <c r="D36">
-        <v>-0.01811018606832653</v>
+        <v>-0.03850010727907506</v>
       </c>
       <c r="E36">
-        <v>-0.08559596023883678</v>
+        <v>-0.01605372886278849</v>
       </c>
       <c r="F36">
-        <v>0.0288576617115044</v>
+        <v>0.0137076028023871</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02473791312410253</v>
+        <v>-0.003036499661093921</v>
       </c>
       <c r="C38">
-        <v>0.05453556687866171</v>
+        <v>0.0005703224682239338</v>
       </c>
       <c r="D38">
-        <v>-0.02514024374841777</v>
+        <v>-0.003683249266720401</v>
       </c>
       <c r="E38">
-        <v>0.06243246462762246</v>
+        <v>-0.00444224553896171</v>
       </c>
       <c r="F38">
-        <v>-0.1180595487918439</v>
+        <v>-0.003535174740513472</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1003337295547473</v>
+        <v>-0.1118839075044303</v>
       </c>
       <c r="C39">
-        <v>0.08190732271004865</v>
+        <v>0.01944533016538442</v>
       </c>
       <c r="D39">
-        <v>0.1310768148031429</v>
+        <v>-0.1456520387329896</v>
       </c>
       <c r="E39">
-        <v>-0.1864295320984792</v>
+        <v>-0.04865710519348539</v>
       </c>
       <c r="F39">
-        <v>-0.03635074608399182</v>
+        <v>0.03881037820092701</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02456801605880793</v>
+        <v>-0.03737271384515719</v>
       </c>
       <c r="C40">
-        <v>0.059906012834108</v>
+        <v>0.00772622663181162</v>
       </c>
       <c r="D40">
-        <v>-0.02758118185293572</v>
+        <v>-0.02585443464197485</v>
       </c>
       <c r="E40">
-        <v>-0.02632272039775538</v>
+        <v>-0.002032735098978985</v>
       </c>
       <c r="F40">
-        <v>0.09213089610727573</v>
+        <v>-0.01540546218871134</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02992316301974986</v>
+        <v>-0.02629599002671471</v>
       </c>
       <c r="C41">
-        <v>0.02529185417278331</v>
+        <v>0.006750284454210888</v>
       </c>
       <c r="D41">
-        <v>0.02293851786771781</v>
+        <v>-0.01188889492366923</v>
       </c>
       <c r="E41">
-        <v>-0.0137689629599974</v>
+        <v>-0.01081646939248585</v>
       </c>
       <c r="F41">
-        <v>-0.01586737210714679</v>
+        <v>-0.01200623012216863</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04569352151441484</v>
+        <v>-0.04308951412168803</v>
       </c>
       <c r="C43">
-        <v>0.0474980941677644</v>
+        <v>0.007091517399558294</v>
       </c>
       <c r="D43">
-        <v>-0.01179016277526223</v>
+        <v>-0.02169799354289095</v>
       </c>
       <c r="E43">
-        <v>-0.03744873674015864</v>
+        <v>-0.02580754514135358</v>
       </c>
       <c r="F43">
-        <v>-0.03853254471837247</v>
+        <v>-0.01151779552524794</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09718861392033173</v>
+        <v>-0.07356533183746292</v>
       </c>
       <c r="C44">
-        <v>0.07945283940410683</v>
+        <v>0.02363096422459521</v>
       </c>
       <c r="D44">
-        <v>-0.06463514009171133</v>
+        <v>-0.09666662083792274</v>
       </c>
       <c r="E44">
-        <v>-0.09658212493063824</v>
+        <v>-0.06311399083271403</v>
       </c>
       <c r="F44">
-        <v>0.09368582688296738</v>
+        <v>0.1834280392384615</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04120205797610038</v>
+        <v>-0.0238100305407538</v>
       </c>
       <c r="C46">
-        <v>0.03840471516732592</v>
+        <v>0.004062206564185269</v>
       </c>
       <c r="D46">
-        <v>-0.05305793505451611</v>
+        <v>-0.01044078844178471</v>
       </c>
       <c r="E46">
-        <v>-0.01004585599630617</v>
+        <v>-0.02274971038216222</v>
       </c>
       <c r="F46">
-        <v>0.03112234323324476</v>
+        <v>-0.004213490376136661</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05522255216185842</v>
+        <v>-0.05303454055444314</v>
       </c>
       <c r="C47">
-        <v>0.0442358022654613</v>
+        <v>0.00353128612353305</v>
       </c>
       <c r="D47">
-        <v>-0.002685114212089105</v>
+        <v>-0.01352456456341323</v>
       </c>
       <c r="E47">
-        <v>-0.0280295212980152</v>
+        <v>-0.02256474906729881</v>
       </c>
       <c r="F47">
-        <v>-0.01354607031646798</v>
+        <v>-0.04765455080967058</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04690649464686522</v>
+        <v>-0.04804817404564245</v>
       </c>
       <c r="C48">
-        <v>0.01649983090246502</v>
+        <v>0.003253654704184563</v>
       </c>
       <c r="D48">
-        <v>0.007640181127849473</v>
+        <v>-0.0426010885049848</v>
       </c>
       <c r="E48">
-        <v>-0.07303706716149871</v>
+        <v>0.009071754685660507</v>
       </c>
       <c r="F48">
-        <v>0.06961426803262377</v>
+        <v>0.01927587004292662</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2363378090595609</v>
+        <v>-0.2072776200354795</v>
       </c>
       <c r="C49">
-        <v>0.06336972289626257</v>
+        <v>0.01724113529872052</v>
       </c>
       <c r="D49">
-        <v>0.03811388041703805</v>
+        <v>0.003894506111049907</v>
       </c>
       <c r="E49">
-        <v>0.2619111723323097</v>
+        <v>-0.04221497069822641</v>
       </c>
       <c r="F49">
-        <v>-0.1417800065909236</v>
+        <v>0.03353605624887972</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03553491316528135</v>
+        <v>-0.04859288818040202</v>
       </c>
       <c r="C50">
-        <v>0.04625288771879981</v>
+        <v>0.01138280090766093</v>
       </c>
       <c r="D50">
-        <v>0.008735409907003966</v>
+        <v>-0.0281952687637273</v>
       </c>
       <c r="E50">
-        <v>-0.06621805422937128</v>
+        <v>-0.02836138391231019</v>
       </c>
       <c r="F50">
-        <v>0.008275893506735554</v>
+        <v>0.006486509653371077</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03218492286249247</v>
+        <v>-0.003681355891666321</v>
       </c>
       <c r="C51">
-        <v>0.002439719631986487</v>
+        <v>0.0008668930750342586</v>
       </c>
       <c r="D51">
-        <v>-3.681545214881036e-05</v>
+        <v>0.001528343609463314</v>
       </c>
       <c r="E51">
-        <v>0.05388028009066407</v>
+        <v>-0.001679168519677019</v>
       </c>
       <c r="F51">
-        <v>-0.01663814127717563</v>
+        <v>0.004185033377333479</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02125611102912797</v>
+        <v>-0.140846905281368</v>
       </c>
       <c r="C52">
-        <v>0.008542731991335352</v>
+        <v>0.01268994027278694</v>
       </c>
       <c r="D52">
-        <v>0.02776815779985546</v>
+        <v>-0.05124689915968563</v>
       </c>
       <c r="E52">
-        <v>-0.005766536804534227</v>
+        <v>-0.01483400379634498</v>
       </c>
       <c r="F52">
-        <v>-0.008362992398780772</v>
+        <v>0.03059108414228952</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.145493975630828</v>
+        <v>-0.1725173250386509</v>
       </c>
       <c r="C53">
-        <v>0.05711012473712781</v>
+        <v>0.01545721738729731</v>
       </c>
       <c r="D53">
-        <v>-0.01250173714872788</v>
+        <v>-0.01953759778977524</v>
       </c>
       <c r="E53">
-        <v>0.04515435241907248</v>
+        <v>-0.03841221791687291</v>
       </c>
       <c r="F53">
-        <v>-0.1007001564376145</v>
+        <v>0.05727116022884346</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06319361391626944</v>
+        <v>-0.02202496558489692</v>
       </c>
       <c r="C54">
-        <v>0.03383687907199452</v>
+        <v>0.01303988871273483</v>
       </c>
       <c r="D54">
-        <v>-0.01199557806612713</v>
+        <v>-0.02810333499808268</v>
       </c>
       <c r="E54">
-        <v>-0.1053817253398363</v>
+        <v>-0.01532766906123534</v>
       </c>
       <c r="F54">
-        <v>0.09086178253211459</v>
+        <v>0.0002547315450801903</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08208318211306333</v>
+        <v>-0.114204331726907</v>
       </c>
       <c r="C55">
-        <v>0.04924908948839839</v>
+        <v>0.01443025093201744</v>
       </c>
       <c r="D55">
-        <v>0.03209161626173791</v>
+        <v>-0.01751810488840768</v>
       </c>
       <c r="E55">
-        <v>0.01343944769777731</v>
+        <v>-0.02978912649252482</v>
       </c>
       <c r="F55">
-        <v>-0.02478298978753116</v>
+        <v>0.04677614088384352</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1401787114779913</v>
+        <v>-0.17737579002284</v>
       </c>
       <c r="C56">
-        <v>0.09258621768335329</v>
+        <v>0.01304506027023948</v>
       </c>
       <c r="D56">
-        <v>0.01908144917377863</v>
+        <v>-0.01664543220129326</v>
       </c>
       <c r="E56">
-        <v>0.01659287083196414</v>
+        <v>-0.04253589809199068</v>
       </c>
       <c r="F56">
-        <v>-0.06465974614259606</v>
+        <v>0.02725648548405633</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03325863141637068</v>
+        <v>-0.04708689392125182</v>
       </c>
       <c r="C58">
-        <v>0.02929216834151883</v>
+        <v>0.003524282273781817</v>
       </c>
       <c r="D58">
-        <v>-0.03273391875840943</v>
+        <v>-0.06180295063732803</v>
       </c>
       <c r="E58">
-        <v>-0.04105156214534463</v>
+        <v>-0.01374006059400956</v>
       </c>
       <c r="F58">
-        <v>0.002006352684962237</v>
+        <v>-0.04368528235726297</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2146346297875781</v>
+        <v>-0.170245107205664</v>
       </c>
       <c r="C59">
-        <v>-0.2412264662078734</v>
+        <v>0.01292753117215847</v>
       </c>
       <c r="D59">
-        <v>0.04904303809020461</v>
+        <v>0.2318579663038442</v>
       </c>
       <c r="E59">
-        <v>0.03995224066882515</v>
+        <v>0.04665068131674619</v>
       </c>
       <c r="F59">
-        <v>0.02397783900291314</v>
+        <v>-0.03178034582507587</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2373195918282643</v>
+        <v>-0.2399251710378071</v>
       </c>
       <c r="C60">
-        <v>0.1432944091691442</v>
+        <v>-0.004177760774181107</v>
       </c>
       <c r="D60">
-        <v>0.07907913034862948</v>
+        <v>-0.0559895871612315</v>
       </c>
       <c r="E60">
-        <v>0.1021302970860651</v>
+        <v>-0.0119334497974448</v>
       </c>
       <c r="F60">
-        <v>-0.03045443278535116</v>
+        <v>-0.04566776939073312</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09595855372300774</v>
+        <v>-0.08580263152451718</v>
       </c>
       <c r="C61">
-        <v>0.06810795994599307</v>
+        <v>0.01483850669546466</v>
       </c>
       <c r="D61">
-        <v>0.07265716864855243</v>
+        <v>-0.1049971043693171</v>
       </c>
       <c r="E61">
-        <v>-0.1431667733599917</v>
+        <v>-0.03335860347737572</v>
       </c>
       <c r="F61">
-        <v>0.006162912755477366</v>
+        <v>0.02516362423767642</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1283798223456866</v>
+        <v>-0.1685952362196573</v>
       </c>
       <c r="C62">
-        <v>0.07410817204997003</v>
+        <v>0.01702365647174916</v>
       </c>
       <c r="D62">
-        <v>0.002700164377589316</v>
+        <v>-0.01419529889440082</v>
       </c>
       <c r="E62">
-        <v>0.04167883142424945</v>
+        <v>-0.03827585924733862</v>
       </c>
       <c r="F62">
-        <v>-0.07149947173850049</v>
+        <v>0.01154505359763877</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04482777757940631</v>
+        <v>-0.04279614481639511</v>
       </c>
       <c r="C63">
-        <v>0.01901332114967677</v>
+        <v>0.004412022916625562</v>
       </c>
       <c r="D63">
-        <v>0.008841931567004954</v>
+        <v>-0.0454214204966123</v>
       </c>
       <c r="E63">
-        <v>-0.07042836274001885</v>
+        <v>-0.01415865619971316</v>
       </c>
       <c r="F63">
-        <v>0.004636368277751087</v>
+        <v>0.01119013741856582</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09788198388025526</v>
+        <v>-0.112071952616247</v>
       </c>
       <c r="C64">
-        <v>0.05805242251822087</v>
+        <v>0.01207792584656379</v>
       </c>
       <c r="D64">
-        <v>-0.0006666675722646519</v>
+        <v>-0.03761413260730866</v>
       </c>
       <c r="E64">
-        <v>-0.08130225914175852</v>
+        <v>-0.01870775774614632</v>
       </c>
       <c r="F64">
-        <v>0.0005156962344398154</v>
+        <v>0.01733069169150759</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1180279526903758</v>
+        <v>-0.1428556207523668</v>
       </c>
       <c r="C65">
-        <v>0.03569503303998506</v>
+        <v>0.03088942496138561</v>
       </c>
       <c r="D65">
-        <v>0.01697081902148747</v>
+        <v>0.0466777466087665</v>
       </c>
       <c r="E65">
-        <v>-0.09454589303194927</v>
+        <v>-0.002949668347467997</v>
       </c>
       <c r="F65">
-        <v>0.03409173454068192</v>
+        <v>0.04258448740747834</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.113070270399919</v>
+        <v>-0.1341641368400745</v>
       </c>
       <c r="C66">
-        <v>0.1188002704430293</v>
+        <v>0.01707186076178387</v>
       </c>
       <c r="D66">
-        <v>0.1260510537658293</v>
+        <v>-0.1322180213725397</v>
       </c>
       <c r="E66">
-        <v>-0.1653874697134373</v>
+        <v>-0.0583355174600549</v>
       </c>
       <c r="F66">
-        <v>-0.040320554306195</v>
+        <v>0.04423899235301798</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08002145580482105</v>
+        <v>-0.06543668055511065</v>
       </c>
       <c r="C67">
-        <v>0.06500383124797104</v>
+        <v>0.004402197863344727</v>
       </c>
       <c r="D67">
-        <v>-0.02814260448806836</v>
+        <v>-0.05600291894077641</v>
       </c>
       <c r="E67">
-        <v>0.0452774482351285</v>
+        <v>-0.01914523844354229</v>
       </c>
       <c r="F67">
-        <v>-0.1402306928100228</v>
+        <v>-0.04313050467916126</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1288122810308148</v>
+        <v>-0.1112043545980203</v>
       </c>
       <c r="C68">
-        <v>-0.2710306687470292</v>
+        <v>0.0219128512298553</v>
       </c>
       <c r="D68">
-        <v>0.01516441538276481</v>
+        <v>0.2733321197916379</v>
       </c>
       <c r="E68">
-        <v>-0.04508778977387917</v>
+        <v>0.08453157492373473</v>
       </c>
       <c r="F68">
-        <v>-0.00179703344778045</v>
+        <v>0.04998995096353256</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0447526232566851</v>
+        <v>-0.04054204680081265</v>
       </c>
       <c r="C69">
-        <v>0.01895849696599478</v>
+        <v>0.001143846005062616</v>
       </c>
       <c r="D69">
-        <v>-0.008091889915625958</v>
+        <v>-0.008906224194480044</v>
       </c>
       <c r="E69">
-        <v>-0.02330254077545825</v>
+        <v>-0.02609711298878579</v>
       </c>
       <c r="F69">
-        <v>-0.03889484276930837</v>
+        <v>-0.01620114012308679</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05107540421796527</v>
+        <v>-0.06410872236312336</v>
       </c>
       <c r="C70">
-        <v>0.05579000414467371</v>
+        <v>-0.02711909549803954</v>
       </c>
       <c r="D70">
-        <v>0.02447687388499172</v>
+        <v>-0.01035403894431588</v>
       </c>
       <c r="E70">
-        <v>-0.06006561415354411</v>
+        <v>0.04342272179540607</v>
       </c>
       <c r="F70">
-        <v>0.01590044943130742</v>
+        <v>-0.3384498240234542</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1487395041894761</v>
+        <v>-0.1299960975651615</v>
       </c>
       <c r="C71">
-        <v>-0.2772435179508613</v>
+        <v>0.02565709005988798</v>
       </c>
       <c r="D71">
-        <v>0.01299496832111465</v>
+        <v>0.2894867413137748</v>
       </c>
       <c r="E71">
-        <v>-0.06032963433243744</v>
+        <v>0.09239701435221682</v>
       </c>
       <c r="F71">
-        <v>-0.005207324173065097</v>
+        <v>0.0519797727522316</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.125310324615799</v>
+        <v>-0.1385034205201909</v>
       </c>
       <c r="C72">
-        <v>0.02586180896646026</v>
+        <v>0.02405640684222763</v>
       </c>
       <c r="D72">
-        <v>0.005631101466629264</v>
+        <v>-0.008989218439143423</v>
       </c>
       <c r="E72">
-        <v>-0.0523377243127675</v>
+        <v>-0.04198271991067676</v>
       </c>
       <c r="F72">
-        <v>-0.0394267345436601</v>
+        <v>0.02549404582290774</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2236568695594886</v>
+        <v>-0.2093677193523947</v>
       </c>
       <c r="C73">
-        <v>0.1240063447226558</v>
+        <v>0.01174359443573916</v>
       </c>
       <c r="D73">
-        <v>0.1484868182440542</v>
+        <v>-0.02570085240995579</v>
       </c>
       <c r="E73">
-        <v>0.4177610698219982</v>
+        <v>-0.07035302692308509</v>
       </c>
       <c r="F73">
-        <v>-0.2895862207444413</v>
+        <v>0.02285456144892926</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08745866407791515</v>
+        <v>-0.09367398354673984</v>
       </c>
       <c r="C74">
-        <v>0.08736858459460557</v>
+        <v>0.01186799288975503</v>
       </c>
       <c r="D74">
-        <v>0.007727791747258197</v>
+        <v>-0.02809043119019166</v>
       </c>
       <c r="E74">
-        <v>0.01105918812949144</v>
+        <v>-0.05133681059418651</v>
       </c>
       <c r="F74">
-        <v>-0.1036292655322134</v>
+        <v>0.04069916469601798</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08759170820964156</v>
+        <v>-0.1300992204754435</v>
       </c>
       <c r="C75">
-        <v>0.06484564979316222</v>
+        <v>0.02615730259774228</v>
       </c>
       <c r="D75">
-        <v>0.00336346459175098</v>
+        <v>-0.03816550843004501</v>
       </c>
       <c r="E75">
-        <v>0.001863432600201305</v>
+        <v>-0.0592178536085949</v>
       </c>
       <c r="F75">
-        <v>-0.01163588206902783</v>
+        <v>0.006898457496862809</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.07429639039441739</v>
+        <v>-0.008806319040710105</v>
       </c>
       <c r="C76">
-        <v>0.07429323148258234</v>
+        <v>0.00194922954160303</v>
       </c>
       <c r="D76">
-        <v>-0.007703096313089195</v>
+        <v>-0.003957589891598386</v>
       </c>
       <c r="E76">
-        <v>0.04780310106173494</v>
+        <v>-0.009171908640647593</v>
       </c>
       <c r="F76">
-        <v>-0.03862581906457026</v>
+        <v>0.002573320464796221</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06651497911934948</v>
+        <v>-0.08060401821730329</v>
       </c>
       <c r="C77">
-        <v>0.01384948954740032</v>
+        <v>0.01173747578060196</v>
       </c>
       <c r="D77">
-        <v>0.03418115400338441</v>
+        <v>-0.09867991890333172</v>
       </c>
       <c r="E77">
-        <v>-0.1747459572756269</v>
+        <v>-0.03029653984481586</v>
       </c>
       <c r="F77">
-        <v>0.1532986232926838</v>
+        <v>0.03783183112190331</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1771907563124665</v>
+        <v>-0.109948564843114</v>
       </c>
       <c r="C78">
-        <v>0.1468488398444306</v>
+        <v>0.04430310216929455</v>
       </c>
       <c r="D78">
-        <v>-0.1761520466114463</v>
+        <v>-0.1165876296788825</v>
       </c>
       <c r="E78">
-        <v>0.2049824628165096</v>
+        <v>-0.08944250393816643</v>
       </c>
       <c r="F78">
-        <v>0.6341220570404786</v>
+        <v>0.07615363190351188</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1302152508315984</v>
+        <v>-0.1624005948038685</v>
       </c>
       <c r="C79">
-        <v>0.07877486583790259</v>
+        <v>0.02014247397231448</v>
       </c>
       <c r="D79">
-        <v>-0.006905959506543605</v>
+        <v>-0.02295803025036</v>
       </c>
       <c r="E79">
-        <v>0.004574534020762896</v>
+        <v>-0.0488988945465036</v>
       </c>
       <c r="F79">
-        <v>-0.04405353669810815</v>
+        <v>0.004936961614614436</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06738603700056746</v>
+        <v>-0.07987836942122997</v>
       </c>
       <c r="C80">
-        <v>0.04199796954557992</v>
+        <v>-0.001493819475262021</v>
       </c>
       <c r="D80">
-        <v>0.07522771211404587</v>
+        <v>-0.05359699058580011</v>
       </c>
       <c r="E80">
-        <v>-0.05644323660855057</v>
+        <v>-0.02780532542595174</v>
       </c>
       <c r="F80">
-        <v>-0.03662031994406203</v>
+        <v>-0.01069974545640653</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1227197832056787</v>
+        <v>-0.1221990624403378</v>
       </c>
       <c r="C81">
-        <v>0.05076495410977153</v>
+        <v>0.02987641736434664</v>
       </c>
       <c r="D81">
-        <v>-0.01146060724346123</v>
+        <v>-0.02758592319489695</v>
       </c>
       <c r="E81">
-        <v>-0.05845677354779966</v>
+        <v>-0.05857787037586429</v>
       </c>
       <c r="F81">
-        <v>-0.01960623611446509</v>
+        <v>-0.004105803180311105</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1211636381768784</v>
+        <v>-0.1622764122012118</v>
       </c>
       <c r="C82">
-        <v>0.05914869256731355</v>
+        <v>0.02055592801773525</v>
       </c>
       <c r="D82">
-        <v>0.007877198156982783</v>
+        <v>-0.02242915213564356</v>
       </c>
       <c r="E82">
-        <v>-0.01763338560692718</v>
+        <v>-0.03489170327754531</v>
       </c>
       <c r="F82">
-        <v>-0.1011681450046036</v>
+        <v>0.05165698576189157</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08572168085017272</v>
+        <v>-0.06649835840390671</v>
       </c>
       <c r="C83">
-        <v>0.08099529370425673</v>
+        <v>0.004048957864585488</v>
       </c>
       <c r="D83">
-        <v>0.01059981993862901</v>
+        <v>-0.04618708311663343</v>
       </c>
       <c r="E83">
-        <v>-0.05408497356400024</v>
+        <v>-0.00359788849948045</v>
       </c>
       <c r="F83">
-        <v>-0.09412028044719194</v>
+        <v>-0.0308057273840336</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05004434196628477</v>
+        <v>-0.0608283155696245</v>
       </c>
       <c r="C84">
-        <v>-0.05178684998572475</v>
+        <v>0.01186598407469664</v>
       </c>
       <c r="D84">
-        <v>0.04375731007647456</v>
+        <v>-0.05902550281511904</v>
       </c>
       <c r="E84">
-        <v>0.04517655259357774</v>
+        <v>0.003810347434034823</v>
       </c>
       <c r="F84">
-        <v>0.1883364551879438</v>
+        <v>0.01466950115806034</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1188235658937654</v>
+        <v>-0.1376584807830845</v>
       </c>
       <c r="C85">
-        <v>0.05221737756444721</v>
+        <v>0.0255633863831905</v>
       </c>
       <c r="D85">
-        <v>0.004391180460935121</v>
+        <v>-0.01974410692234594</v>
       </c>
       <c r="E85">
-        <v>0.004955026247719609</v>
+        <v>-0.04039276325451754</v>
       </c>
       <c r="F85">
-        <v>-0.05780117389880301</v>
+        <v>0.03963116384561691</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09378808609745207</v>
+        <v>-0.1005931186816496</v>
       </c>
       <c r="C86">
-        <v>0.0117354924657561</v>
+        <v>-0.006899879330195697</v>
       </c>
       <c r="D86">
-        <v>-0.02499711365869737</v>
+        <v>-0.01383256053822106</v>
       </c>
       <c r="E86">
-        <v>0.3262946379565137</v>
+        <v>-0.1323610322756658</v>
       </c>
       <c r="F86">
-        <v>0.3941674545139586</v>
+        <v>-0.8314981221457934</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1251889883305152</v>
+        <v>-0.1011680053553113</v>
       </c>
       <c r="C87">
-        <v>0.06598660093439861</v>
+        <v>0.02622309048422328</v>
       </c>
       <c r="D87">
-        <v>-0.01203616562216359</v>
+        <v>-0.06988659908439003</v>
       </c>
       <c r="E87">
-        <v>-0.06932265533553895</v>
+        <v>0.0543857116013689</v>
       </c>
       <c r="F87">
-        <v>0.03385026271016414</v>
+        <v>0.0936479000596518</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05795810056058837</v>
+        <v>-0.06157620124670683</v>
       </c>
       <c r="C88">
-        <v>0.0617419713595468</v>
+        <v>0.003377124669870955</v>
       </c>
       <c r="D88">
-        <v>0.03327086413330031</v>
+        <v>-0.05706094657621696</v>
       </c>
       <c r="E88">
-        <v>-0.02385760650288441</v>
+        <v>-0.02572411612346858</v>
       </c>
       <c r="F88">
-        <v>-0.01922327895919386</v>
+        <v>0.006734631951401423</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2289959716191</v>
+        <v>-0.1319735120326454</v>
       </c>
       <c r="C89">
-        <v>-0.372048952271053</v>
+        <v>0.004601771734639896</v>
       </c>
       <c r="D89">
-        <v>-0.05227189103386418</v>
+        <v>0.2751939438351709</v>
       </c>
       <c r="E89">
-        <v>0.02929353999784233</v>
+        <v>0.09082762594955236</v>
       </c>
       <c r="F89">
-        <v>0.01682131995567118</v>
+        <v>0.0334727074963177</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1574526888872779</v>
+        <v>-0.1421675445336572</v>
       </c>
       <c r="C90">
-        <v>-0.2592025415840458</v>
+        <v>0.02122451061115527</v>
       </c>
       <c r="D90">
-        <v>0.01187605140216033</v>
+        <v>0.2744856390099755</v>
       </c>
       <c r="E90">
-        <v>-0.01911183268158857</v>
+        <v>0.1030232120483368</v>
       </c>
       <c r="F90">
-        <v>-0.01695393061704897</v>
+        <v>0.03828480673551542</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07524473094505826</v>
+        <v>-0.1169492511440449</v>
       </c>
       <c r="C91">
-        <v>0.0604794901701237</v>
+        <v>0.01631322275541708</v>
       </c>
       <c r="D91">
-        <v>-0.005336877262386205</v>
+        <v>-0.001921214302746648</v>
       </c>
       <c r="E91">
-        <v>0.01899650608054562</v>
+        <v>-0.05928178798312056</v>
       </c>
       <c r="F91">
-        <v>-0.002275028315179386</v>
+        <v>-0.03150927522446544</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1676166787309645</v>
+        <v>-0.1444368029437889</v>
       </c>
       <c r="C92">
-        <v>-0.2962943210491023</v>
+        <v>0.01252330924396469</v>
       </c>
       <c r="D92">
-        <v>-0.03259248743646375</v>
+        <v>0.310015130515318</v>
       </c>
       <c r="E92">
-        <v>-0.04549677843726078</v>
+        <v>0.09916313767555671</v>
       </c>
       <c r="F92">
-        <v>0.03286941609463274</v>
+        <v>0.02907568435745799</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1712134218276915</v>
+        <v>-0.146389276446059</v>
       </c>
       <c r="C93">
-        <v>-0.3055019748287791</v>
+        <v>0.01794407047529696</v>
       </c>
       <c r="D93">
-        <v>0.04001471027403083</v>
+        <v>0.2794095897313223</v>
       </c>
       <c r="E93">
-        <v>-0.01783554282628886</v>
+        <v>0.06988269537576838</v>
       </c>
       <c r="F93">
-        <v>0.008922776549273013</v>
+        <v>0.0300421572414623</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1148922979147158</v>
+        <v>-0.133636146233523</v>
       </c>
       <c r="C94">
-        <v>0.08576704065208865</v>
+        <v>0.02355685424967107</v>
       </c>
       <c r="D94">
-        <v>-0.009890652784546037</v>
+        <v>-0.05099651670956176</v>
       </c>
       <c r="E94">
-        <v>0.01878483525093015</v>
+        <v>-0.06161821214518442</v>
       </c>
       <c r="F94">
-        <v>-0.04284979374523813</v>
+        <v>0.02506893995255631</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1421318032718089</v>
+        <v>-0.1273638719886603</v>
       </c>
       <c r="C95">
-        <v>0.06585511266006068</v>
+        <v>0.006322810303000949</v>
       </c>
       <c r="D95">
-        <v>-0.01392553625169541</v>
+        <v>-0.08982907188718527</v>
       </c>
       <c r="E95">
-        <v>-0.03487657312410089</v>
+        <v>-0.04031426041340707</v>
       </c>
       <c r="F95">
-        <v>0.127602722073914</v>
+        <v>-0.008925813387455081</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09537041315365713</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.9893346798673169</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01529426534774564</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06018310899961897</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05040358000188105</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1169469724174776</v>
+        <v>-0.1881157733054606</v>
       </c>
       <c r="C97">
-        <v>-0.0153524001789111</v>
+        <v>-0.01224056649478057</v>
       </c>
       <c r="D97">
-        <v>-0.01327044130891316</v>
+        <v>0.0114118669464832</v>
       </c>
       <c r="E97">
-        <v>-0.3074566499369153</v>
+        <v>-0.0140680688087594</v>
       </c>
       <c r="F97">
-        <v>-0.1354105700800283</v>
+        <v>-0.1632121701622943</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2527835749114616</v>
+        <v>-0.2072537584251801</v>
       </c>
       <c r="C98">
-        <v>0.1177655089214298</v>
+        <v>0.007315979126630246</v>
       </c>
       <c r="D98">
-        <v>-0.05855997687650624</v>
+        <v>-0.01590155236483906</v>
       </c>
       <c r="E98">
-        <v>0.226349008376151</v>
+        <v>0.08732676055745772</v>
       </c>
       <c r="F98">
-        <v>-0.1133317317020133</v>
+        <v>-0.141330489584015</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07224229826771499</v>
+        <v>-0.05769402489844435</v>
       </c>
       <c r="C99">
-        <v>0.05504499857803929</v>
+        <v>-0.003274770411746987</v>
       </c>
       <c r="D99">
-        <v>-0.016330547320385</v>
+        <v>-0.03223468529490689</v>
       </c>
       <c r="E99">
-        <v>0.04321656537225075</v>
+        <v>-0.02654540062420225</v>
       </c>
       <c r="F99">
-        <v>-0.01956211164463123</v>
+        <v>0.004147357477739735</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1224863212136078</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04808248382084845</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.321695075667734</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9070778094723362</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.06101542434880425</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04127817344240889</v>
+        <v>-0.02706661438253518</v>
       </c>
       <c r="C101">
-        <v>0.02643932630993904</v>
+        <v>0.009081870476171183</v>
       </c>
       <c r="D101">
-        <v>0.004838904060496759</v>
+        <v>-0.02701638509375182</v>
       </c>
       <c r="E101">
-        <v>-0.03679632245413898</v>
+        <v>-0.008172871678508338</v>
       </c>
       <c r="F101">
-        <v>0.02367789892529232</v>
+        <v>-0.008820425511451914</v>
       </c>
     </row>
     <row r="102" spans="1:6">
